--- a/Suppl/path.xlsx
+++ b/Suppl/path.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Me\Fitness\Suppl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Grow</t>
   </si>
@@ -48,16 +48,32 @@
   </si>
   <si>
     <t>Stage</t>
+  </si>
+  <si>
+    <t>Routine + Low Food</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Routine + Full Food</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Mix, multiple iterations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +85,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,70 +213,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -263,9 +259,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -276,7 +283,48 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -286,34 +334,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -322,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,13 +360,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,30 +380,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,36 +717,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>186.6</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>16.399999999999999</v>
       </c>
       <c r="C2" s="16">
@@ -732,70 +760,99 @@
         <f>A2*(B2/100)</f>
         <v>30.602399999999996</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>SUM(C3:D3)</f>
-        <v>196.6</v>
-      </c>
-      <c r="B3" s="5">
-        <f>D3/A3*100</f>
-        <v>15.565818921668361</v>
-      </c>
-      <c r="C3" s="18">
-        <f>C2+10</f>
-        <v>165.99760000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <f>D2</f>
-        <v>30.602399999999996</v>
-      </c>
-      <c r="E3" s="14" t="s">
+        <f>C3+D3</f>
+        <v>177.6</v>
+      </c>
+      <c r="B3" s="19">
+        <f>D3/A3</f>
+        <v>0.12726576576576576</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2-1</f>
+        <v>154.99760000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <f>D2-8</f>
+        <v>22.602399999999996</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>C4+D4</f>
+        <v>191</v>
+      </c>
+      <c r="B4" s="19">
+        <f>D4/A4</f>
+        <v>0.13089005235602094</v>
+      </c>
+      <c r="C4" s="18">
+        <v>166</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="F4" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>SUM(C4:D4)</f>
-        <v>176.6</v>
-      </c>
-      <c r="B4" s="5">
-        <f>D4/A4*100</f>
-        <v>8.2686296715741765</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C3-4</f>
-        <v>161.99760000000001</v>
-      </c>
-      <c r="D4" s="19">
-        <f>D3-16</f>
-        <v>14.602399999999996</v>
-      </c>
-      <c r="E4" s="14" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>C5+D5</f>
+        <v>181</v>
+      </c>
+      <c r="B5" s="19">
+        <f>D5/A5</f>
+        <v>9.3922651933701654E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>164</v>
+      </c>
+      <c r="D5" s="7">
+        <f>D4-8</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="F5" s="21" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <f>SUM(C5:D5)</f>
-        <v>180.39760000000001</v>
-      </c>
-      <c r="B5" s="6">
-        <f>D5/A5*100</f>
-        <v>7.9823678363791979</v>
-      </c>
-      <c r="C5" s="20">
-        <f>C3</f>
-        <v>165.99760000000001</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <f>C6+D6</f>
+        <v>180.4</v>
+      </c>
+      <c r="B6" s="20">
+        <f>D6/A6</f>
+        <v>7.9822616407982258E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>166</v>
+      </c>
+      <c r="D6" s="4">
         <v>14.4</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>0</v>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Suppl/path.xlsx
+++ b/Suppl/path.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Grow</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Mix, multiple iterations</t>
+  </si>
+  <si>
+    <t>Back to Work</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +406,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,15 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -813,45 +821,67 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>C5+D5</f>
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B5" s="19">
         <f>D5/A5</f>
-        <v>9.3922651933701654E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>164</v>
-      </c>
-      <c r="D5" s="7">
+        <v>0.140625</v>
+      </c>
+      <c r="C5" s="22">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>C6+D6</f>
+        <v>180</v>
+      </c>
+      <c r="B6" s="19">
+        <f>D6/A6</f>
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>163</v>
+      </c>
+      <c r="D6" s="7">
         <f>D4-8</f>
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <f>C6+D6</f>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <f>C7+D7</f>
         <v>180.4</v>
       </c>
-      <c r="B6" s="20">
-        <f>D6/A6</f>
+      <c r="B7" s="20">
+        <f>D7/A7</f>
         <v>7.9822616407982258E-2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>166</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>14.4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Suppl/path.xlsx
+++ b/Suppl/path.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Me\Fitness\Suppl\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Grow</t>
   </si>
@@ -50,22 +50,19 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>Routine + Low Food</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>Routine + Full Food</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Mix, multiple iterations</t>
-  </si>
-  <si>
     <t>Back to Work</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Concurrent      Activities</t>
   </si>
 </sst>
 </file>
@@ -76,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +97,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +125,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -190,32 +201,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -320,10 +305,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -334,13 +372,26 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -349,67 +400,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,6 +491,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49697</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>528484</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E942469-C55C-4EE8-9D1D-9F9208A5F8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266439" y="3275371"/>
+          <a:ext cx="1087158" cy="386953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,169 +845,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="6">
         <v>186.6</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="21">
         <v>16.399999999999999</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="19">
         <f>A2-D2</f>
         <v>155.99760000000001</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="8">
         <f>A2*(B2/100)</f>
         <v>30.602399999999996</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>C3+D3</f>
-        <v>177.6</v>
-      </c>
-      <c r="B3" s="19">
-        <f>D3/A3</f>
-        <v>0.12726576576576576</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2-1</f>
-        <v>154.99760000000001</v>
-      </c>
-      <c r="D3" s="7">
-        <f>D2-8</f>
-        <v>22.602399999999996</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>8</v>
-      </c>
+        <f>C3/(1-B3)</f>
+        <v>177.01149425287358</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="C3" s="20">
+        <v>154</v>
+      </c>
+      <c r="D3" s="10">
+        <f>A3*B3</f>
+        <v>23.011494252873565</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>C4+D4</f>
-        <v>191</v>
-      </c>
-      <c r="B4" s="19">
+        <v>185</v>
+      </c>
+      <c r="B4" s="23">
         <f>D4/A4</f>
-        <v>0.13089005235602094</v>
-      </c>
-      <c r="C4" s="18">
-        <v>166</v>
-      </c>
-      <c r="D4" s="2">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>10</v>
-      </c>
+        <v>0.14594594594594595</v>
+      </c>
+      <c r="C4" s="20">
+        <v>158</v>
+      </c>
+      <c r="D4" s="10">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>C5+D5</f>
-        <v>192</v>
-      </c>
-      <c r="B5" s="19">
+        <v>193</v>
+      </c>
+      <c r="B5" s="23">
         <f>D5/A5</f>
-        <v>0.140625</v>
-      </c>
-      <c r="C5" s="22">
-        <v>165</v>
-      </c>
-      <c r="D5" s="2">
-        <v>27</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>10</v>
-      </c>
+        <v>0.16062176165803108</v>
+      </c>
+      <c r="C5" s="25">
+        <v>162</v>
+      </c>
+      <c r="D5" s="10">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>C6+D6</f>
-        <v>180</v>
-      </c>
-      <c r="B6" s="19">
+        <v>193</v>
+      </c>
+      <c r="B6" s="23">
         <f>D6/A6</f>
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>163</v>
-      </c>
-      <c r="D6" s="7">
-        <f>D4-8</f>
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>0.16580310880829016</v>
+      </c>
+      <c r="C6" s="20">
+        <v>161</v>
+      </c>
+      <c r="D6" s="10">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>C7+D7</f>
+        <v>181.7</v>
+      </c>
+      <c r="B7" s="23">
+        <f>D7/A7</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="C7" s="20">
+        <v>158</v>
+      </c>
+      <c r="D7" s="26">
+        <v>23.7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="21" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <f>C10+D10</f>
+        <v>180.5</v>
+      </c>
+      <c r="B10" s="27">
+        <f>D10/A10</f>
+        <v>8.0332409972299165E-2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>166</v>
+      </c>
+      <c r="D10" s="16">
+        <v>14.5</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <f>C7+D7</f>
-        <v>180.4</v>
-      </c>
-      <c r="B7" s="20">
-        <f>D7/A7</f>
-        <v>7.9822616407982258E-2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>166</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Suppl/path.xlsx
+++ b/Suppl/path.xlsx
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,9 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,6 +463,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,8 +479,6 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,13 +851,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -894,11 +897,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="30">
         <f>C3/(1-B3)</f>
         <v>177.01149425287358</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="31">
         <v>0.13</v>
       </c>
       <c r="C3" s="20">
@@ -911,14 +914,14 @@
       <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>C4+D4</f>
         <v>185</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <f>D4/A4</f>
         <v>0.14594594594594595</v>
       </c>
@@ -931,18 +934,18 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>C5+D5</f>
         <v>193</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <f>D5/A5</f>
         <v>0.16062176165803108</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>162</v>
       </c>
       <c r="D5" s="10">
@@ -951,14 +954,14 @@
       <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>C6+D6</f>
         <v>193</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <f>D6/A6</f>
         <v>0.16580310880829016</v>
       </c>
@@ -971,43 +974,43 @@
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>C7+D7</f>
         <v>181.7</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <f>D7/A7</f>
         <v>0.13043478260869565</v>
       </c>
       <c r="C7" s="20">
         <v>158</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>23.7</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="17"/>
       <c r="D8" s="14"/>
       <c r="E8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="18"/>
       <c r="D9" s="15"/>
       <c r="E9" s="13" t="s">
@@ -1015,15 +1018,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <f>C10+D10</f>
         <v>180.5</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <f>D10/A10</f>
         <v>8.0332409972299165E-2</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>166</v>
       </c>
       <c r="D10" s="16">
@@ -1033,8 +1036,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B9"/>
